--- a/CAPCIS/ExternalProjectFiles/DR Files/switchReferenceTable.xlsx
+++ b/CAPCIS/ExternalProjectFiles/DR Files/switchReferenceTable.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>major</t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t xml:space="preserve">pulls non CBI CAP clients attending class that have phased up and will have two prior abcenses changed to excused abcenses </t>
+  </si>
+  <si>
+    <t>Return table with the approved web compenet per auth level</t>
+  </si>
+  <si>
+    <t>return the single value of the page to open</t>
+  </si>
+  <si>
+    <t>FxWebComponentNamesID</t>
   </si>
 </sst>
 </file>
@@ -480,10 +489,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,14 +551,39 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
     </row>

--- a/CAPCIS/ExternalProjectFiles/DR Files/switchReferenceTable.xlsx
+++ b/CAPCIS/ExternalProjectFiles/DR Files/switchReferenceTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6135" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6135" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="dViewQuery" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>major</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>FxWebComponentNamesID</t>
+  </si>
+  <si>
+    <t>returns the division the user is approved for</t>
+  </si>
+  <si>
+    <t>inserts token and user accounts ID into fx authinticationtoken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inserts into login tracking when a login is attempted the name attempted and if it was successful </t>
   </si>
 </sst>
 </file>
@@ -489,10 +498,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,14 +585,25 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -594,10 +614,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,6 +671,34 @@
         <v>17</v>
       </c>
     </row>
+    <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CAPCIS/ExternalProjectFiles/DR Files/switchReferenceTable.xlsx
+++ b/CAPCIS/ExternalProjectFiles/DR Files/switchReferenceTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6135" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6135"/>
   </bookViews>
   <sheets>
     <sheet name="dViewQuery" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
   <si>
     <t>major</t>
   </si>
@@ -113,6 +113,36 @@
   </si>
   <si>
     <t>Program</t>
+  </si>
+  <si>
+    <t>returns Weekday number, Class, TimeNumber, and Classroom for use in filtered class view</t>
+  </si>
+  <si>
+    <t>program</t>
+  </si>
+  <si>
+    <t>goes through client monitoreing data and filters out voids and counts how many total classes attended</t>
+  </si>
+  <si>
+    <t>goes through and determines how much eachclient has been charged, how much the client has paid, and the current balance</t>
+  </si>
+  <si>
+    <t>determines the price of the class for the client</t>
+  </si>
+  <si>
+    <t>Query to pull clients that are pulled for testing during class and to show the test price</t>
+  </si>
+  <si>
+    <t>Class Attended</t>
+  </si>
+  <si>
+    <t>Filters the clients for the class roster</t>
+  </si>
+  <si>
+    <t>lists the active clients</t>
+  </si>
+  <si>
+    <t>lists the mu classes and there prices</t>
   </si>
 </sst>
 </file>
@@ -433,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E12" sqref="E10:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,6 +533,72 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -510,10 +606,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F15" sqref="F13:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,6 +752,48 @@
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/CAPCIS/ExternalProjectFiles/DR Files/switchReferenceTable.xlsx
+++ b/CAPCIS/ExternalProjectFiles/DR Files/switchReferenceTable.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Derek\Documents\Wakanda\CAPCIS\CAPCIS\ExternalProjectFiles\DR Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drenf_000\Documents\Wakanda\CAPCIS\CAPCIS\ExternalProjectFiles\DR Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dViewQuery" sheetId="1" r:id="rId1"/>
@@ -465,18 +465,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E12" sqref="E10:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="14.1796875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,7 +502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -519,7 +519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -533,7 +533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -544,7 +544,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -555,7 +555,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -566,7 +566,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -577,7 +577,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -588,7 +588,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -608,16 +608,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="F15" sqref="F13:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="11.85546875" style="1"/>
+    <col min="1" max="16384" width="11.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -657,7 +657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -668,7 +668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -679,7 +679,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -693,7 +693,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -704,7 +704,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="174" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -715,7 +715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -726,7 +726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -737,7 +737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -754,7 +754,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="145" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -768,7 +768,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="145" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -809,15 +809,15 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="13.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="13.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -843,7 +843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -860,7 +860,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -871,7 +871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>0</v>
       </c>

--- a/CAPCIS/ExternalProjectFiles/DR Files/switchReferenceTable.xlsx
+++ b/CAPCIS/ExternalProjectFiles/DR Files/switchReferenceTable.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drenf_000\Documents\Wakanda\CAPCIS\CAPCIS\ExternalProjectFiles\DR Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Derek\Documents\Wakanda\CAPCIS\CAPCIS\ExternalProjectFiles\DR Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6140" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6135" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="dViewQuery" sheetId="1" r:id="rId1"/>
     <sheet name="dSelectsQuery" sheetId="2" r:id="rId2"/>
-    <sheet name="dInsertQuery" sheetId="3" r:id="rId3"/>
+    <sheet name="dUpdateQuery" sheetId="4" r:id="rId3"/>
+    <sheet name="dInsertQuery" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="74">
   <si>
     <t>major</t>
   </si>
@@ -143,6 +144,111 @@
   </si>
   <si>
     <t>lists the mu classes and there prices</t>
+  </si>
+  <si>
+    <t>returns all accessor information</t>
+  </si>
+  <si>
+    <t>if inactive in 1 or 0 where 0 is active and 1 is inactive</t>
+  </si>
+  <si>
+    <t>updates the assessor table with new information</t>
+  </si>
+  <si>
+    <t>AssessorName</t>
+  </si>
+  <si>
+    <t>Assessor Phone</t>
+  </si>
+  <si>
+    <t>Assessor Email</t>
+  </si>
+  <si>
+    <t>AssessorFax</t>
+  </si>
+  <si>
+    <t>Assessor Address</t>
+  </si>
+  <si>
+    <t>AssessorCity</t>
+  </si>
+  <si>
+    <t>Assessor State</t>
+  </si>
+  <si>
+    <t>AssessorZipCode</t>
+  </si>
+  <si>
+    <t>AssessorPhoneExt</t>
+  </si>
+  <si>
+    <t>AssessorMobile Phone</t>
+  </si>
+  <si>
+    <t>AssessorNotes</t>
+  </si>
+  <si>
+    <t>Assessor Full Name Display</t>
+  </si>
+  <si>
+    <t>Preferred Reporting Method</t>
+  </si>
+  <si>
+    <t>data6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data7 </t>
+  </si>
+  <si>
+    <t>data8</t>
+  </si>
+  <si>
+    <t>data9</t>
+  </si>
+  <si>
+    <t>data10</t>
+  </si>
+  <si>
+    <t>data11</t>
+  </si>
+  <si>
+    <t>data12</t>
+  </si>
+  <si>
+    <t>data13</t>
+  </si>
+  <si>
+    <t>data14</t>
+  </si>
+  <si>
+    <t>Assessor Information ID</t>
+  </si>
+  <si>
+    <t>data15</t>
+  </si>
+  <si>
+    <t>InactiveAssessorInfo</t>
+  </si>
+  <si>
+    <t>data16</t>
+  </si>
+  <si>
+    <t>correspondance</t>
+  </si>
+  <si>
+    <t>assessor id</t>
+  </si>
+  <si>
+    <t>inserts correspondance into the assessor correspondance table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">voides a assessor corespondance </t>
+  </si>
+  <si>
+    <t>Created Data Time</t>
+  </si>
+  <si>
+    <t>Voided Status</t>
   </si>
 </sst>
 </file>
@@ -465,18 +571,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E10:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.1796875" style="1"/>
-    <col min="3" max="3" width="14.1796875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,7 +608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -519,7 +625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -533,7 +639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -544,7 +650,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -555,7 +661,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -566,7 +672,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -577,7 +683,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -588,7 +694,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -606,18 +712,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F15" sqref="F13:F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.81640625" style="1"/>
+    <col min="1" max="16384" width="11.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -643,7 +749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -657,7 +763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -668,7 +774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -679,7 +785,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -693,7 +799,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -704,7 +810,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="174" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -715,7 +821,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -726,7 +832,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -737,7 +843,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -754,7 +860,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="145" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -768,7 +874,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="145" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -782,7 +888,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -794,6 +900,20 @@
       </c>
       <c r="D13" s="1" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -803,21 +923,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.1796875" style="1"/>
-    <col min="3" max="3" width="13.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -842,8 +959,599 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="I1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D7:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="13.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -860,7 +1568,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -871,7 +1579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -886,6 +1594,79 @@
       </c>
       <c r="E4" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
